--- a/WorkoutFiles/ExerciseStatistics.xlsx
+++ b/WorkoutFiles/ExerciseStatistics.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Barbell Squat" r:id="rId5" sheetId="3"/>
     <sheet name="Barbell Calf Raise" r:id="rId6" sheetId="4"/>
     <sheet name="Cable Hip Thrust" r:id="rId7" sheetId="5"/>
-    <sheet name="Cable Hip Abbduction" r:id="rId8" sheetId="6"/>
+    <sheet name="Cable Hip Abduction" r:id="rId8" sheetId="6"/>
     <sheet name="Overhead Press" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
@@ -1451,7 +1451,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cable Hip Abbduction'!$A$2:$A$5</c:f>
+              <c:f>'Cable Hip Abduction'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1471,7 +1471,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cable Hip Abbduction'!$B$2:$B$5</c:f>
+              <c:f>'Cable Hip Abduction'!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1503,7 +1503,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cable Hip Abbduction'!$A$2:$A$5</c:f>
+              <c:f>'Cable Hip Abduction'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1523,7 +1523,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cable Hip Abbduction'!$E$2:$E$5</c:f>
+              <c:f>'Cable Hip Abduction'!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1668,7 +1668,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cable Hip Abbduction'!$A$2:$A$5</c:f>
+              <c:f>'Cable Hip Abduction'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1688,7 +1688,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cable Hip Abbduction'!$C$2:$C$5</c:f>
+              <c:f>'Cable Hip Abduction'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1833,7 +1833,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cable Hip Abbduction'!$A$2:$A$5</c:f>
+              <c:f>'Cable Hip Abduction'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1853,7 +1853,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cable Hip Abbduction'!$D$2:$D$5</c:f>
+              <c:f>'Cable Hip Abduction'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">

--- a/WorkoutFiles/ExerciseStatistics.xlsx
+++ b/WorkoutFiles/ExerciseStatistics.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>2020-02-17</t>
+  </si>
+  <si>
+    <t>2020-02-18</t>
+  </si>
+  <si>
+    <t>2020-02-19</t>
+  </si>
+  <si>
+    <t>2020-02-28</t>
   </si>
 </sst>
 </file>
@@ -357,9 +369,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Barbell Calf Raise'!$A$2:$A$5</c:f>
+              <c:f>'Barbell Calf Raise'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2020-01-13</c:v>
                 </c:pt>
@@ -371,15 +383,24 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2020-01-19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-02-17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-02-18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-02-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Barbell Calf Raise'!$B$2:$B$5</c:f>
+              <c:f>'Barbell Calf Raise'!$B$2:$B$8</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>165.0</c:v>
                 </c:pt>
@@ -390,6 +411,15 @@
                   <c:v>185.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -409,9 +439,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Barbell Calf Raise'!$A$2:$A$5</c:f>
+              <c:f>'Barbell Calf Raise'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2020-01-13</c:v>
                 </c:pt>
@@ -423,15 +453,24 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2020-01-19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-02-17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-02-18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-02-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Barbell Calf Raise'!$E$2:$E$5</c:f>
+              <c:f>'Barbell Calf Raise'!$E$2:$E$8</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>247.5</c:v>
                 </c:pt>
@@ -442,6 +481,15 @@
                   <c:v>246.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>260.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>262.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>246.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>260.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -574,9 +622,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Barbell Calf Raise'!$A$2:$A$5</c:f>
+              <c:f>'Barbell Calf Raise'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2020-01-13</c:v>
                 </c:pt>
@@ -588,15 +636,24 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2020-01-19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-02-17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-02-18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-02-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Barbell Calf Raise'!$C$2:$C$5</c:f>
+              <c:f>'Barbell Calf Raise'!$C$2:$C$8</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>15.0</c:v>
                 </c:pt>
@@ -607,6 +664,15 @@
                   <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -739,9 +805,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Barbell Calf Raise'!$A$2:$A$5</c:f>
+              <c:f>'Barbell Calf Raise'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2020-01-13</c:v>
                 </c:pt>
@@ -753,15 +819,24 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2020-01-19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-02-17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-02-18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-02-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Barbell Calf Raise'!$D$2:$D$5</c:f>
+              <c:f>'Barbell Calf Raise'!$D$2:$D$8</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2475.0</c:v>
                 </c:pt>
@@ -772,6 +847,15 @@
                   <c:v>1850.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2625.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1850.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1800.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -904,9 +988,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cable Hip Thrust'!$A$2:$A$5</c:f>
+              <c:f>'Cable Hip Thrust'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2020-01-13</c:v>
                 </c:pt>
@@ -918,15 +1002,24 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2020-01-19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-02-17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-02-18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-02-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cable Hip Thrust'!$B$2:$B$5</c:f>
+              <c:f>'Cable Hip Thrust'!$B$2:$B$8</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>125.0</c:v>
                 </c:pt>
@@ -937,6 +1030,15 @@
                   <c:v>130.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>115.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -956,9 +1058,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cable Hip Thrust'!$A$2:$A$5</c:f>
+              <c:f>'Cable Hip Thrust'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2020-01-13</c:v>
                 </c:pt>
@@ -970,15 +1072,24 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2020-01-19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-02-17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-02-18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-02-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cable Hip Thrust'!$E$2:$E$5</c:f>
+              <c:f>'Cable Hip Thrust'!$E$2:$E$8</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>175.0</c:v>
                 </c:pt>
@@ -989,6 +1100,15 @@
                   <c:v>173.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>157.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>173.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>157.16666666666666</c:v>
                 </c:pt>
               </c:numCache>
@@ -1121,9 +1241,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cable Hip Thrust'!$A$2:$A$5</c:f>
+              <c:f>'Cable Hip Thrust'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2020-01-13</c:v>
                 </c:pt>
@@ -1135,15 +1255,24 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2020-01-19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-02-17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-02-18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-02-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cable Hip Thrust'!$C$2:$C$5</c:f>
+              <c:f>'Cable Hip Thrust'!$C$2:$C$8</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>12.0</c:v>
                 </c:pt>
@@ -1154,6 +1283,15 @@
                   <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1286,9 +1424,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cable Hip Thrust'!$A$2:$A$5</c:f>
+              <c:f>'Cable Hip Thrust'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2020-01-13</c:v>
                 </c:pt>
@@ -1300,15 +1438,24 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2020-01-19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-02-17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-02-18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-02-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cable Hip Thrust'!$D$2:$D$5</c:f>
+              <c:f>'Cable Hip Thrust'!$D$2:$D$8</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1500.0</c:v>
                 </c:pt>
@@ -1319,6 +1466,15 @@
                   <c:v>1300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1265.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1265.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1451,9 +1607,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cable Hip Abduction'!$A$2:$A$5</c:f>
+              <c:f>'Cable Hip Abduction'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2020-01-13</c:v>
                 </c:pt>
@@ -1465,15 +1621,24 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2020-01-19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-02-17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-02-18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-02-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cable Hip Abduction'!$B$2:$B$5</c:f>
+              <c:f>'Cable Hip Abduction'!$B$2:$B$8</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>20.0</c:v>
                 </c:pt>
@@ -1484,6 +1649,15 @@
                   <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>15.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1503,9 +1677,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cable Hip Abduction'!$A$2:$A$5</c:f>
+              <c:f>'Cable Hip Abduction'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2020-01-13</c:v>
                 </c:pt>
@@ -1517,15 +1691,24 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2020-01-19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-02-17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-02-18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-02-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cable Hip Abduction'!$E$2:$E$5</c:f>
+              <c:f>'Cable Hip Abduction'!$E$2:$E$8</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>28.0</c:v>
                 </c:pt>
@@ -1536,6 +1719,15 @@
                   <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>19.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1668,9 +1860,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cable Hip Abduction'!$A$2:$A$5</c:f>
+              <c:f>'Cable Hip Abduction'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2020-01-13</c:v>
                 </c:pt>
@@ -1682,15 +1874,24 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2020-01-19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-02-17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-02-18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-02-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cable Hip Abduction'!$C$2:$C$5</c:f>
+              <c:f>'Cable Hip Abduction'!$C$2:$C$8</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>12.0</c:v>
                 </c:pt>
@@ -1701,6 +1902,15 @@
                   <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1833,9 +2043,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Cable Hip Abduction'!$A$2:$A$5</c:f>
+              <c:f>'Cable Hip Abduction'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2020-01-13</c:v>
                 </c:pt>
@@ -1847,15 +2057,24 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2020-01-19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-02-17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-02-18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-02-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cable Hip Abduction'!$D$2:$D$5</c:f>
+              <c:f>'Cable Hip Abduction'!$D$2:$D$8</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>240.0</c:v>
                 </c:pt>
@@ -1866,6 +2085,15 @@
                   <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1998,21 +2226,27 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Overhead Press'!$A$2</c:f>
+              <c:f>'Overhead Press'!$A$2:$A$3</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2020-05-30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020-02-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Overhead Press'!$B$2</c:f>
+              <c:f>'Overhead Press'!$B$2:$B$3</c:f>
               <c:numCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2032,21 +2266,27 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Overhead Press'!$A$2</c:f>
+              <c:f>'Overhead Press'!$A$2:$A$3</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2020-05-30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020-02-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Overhead Press'!$E$2</c:f>
+              <c:f>'Overhead Press'!$E$2:$E$3</c:f>
               <c:numCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>66.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>66.66666666666666</c:v>
                 </c:pt>
               </c:numCache>
@@ -2344,21 +2584,27 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Overhead Press'!$A$2</c:f>
+              <c:f>'Overhead Press'!$A$2:$A$3</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2020-05-30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020-02-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Overhead Press'!$C$2</c:f>
+              <c:f>'Overhead Press'!$C$2:$C$3</c:f>
               <c:numCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2491,21 +2737,27 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Overhead Press'!$A$2</c:f>
+              <c:f>'Overhead Press'!$A$2:$A$3</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2020-05-30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020-02-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Overhead Press'!$D$2</c:f>
+              <c:f>'Overhead Press'!$D$2:$D$3</c:f>
               <c:numCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>500.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3350,9 +3602,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Barbell Squat'!$A$2:$A$5</c:f>
+              <c:f>'Barbell Squat'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2020-01-13</c:v>
                 </c:pt>
@@ -3364,15 +3616,24 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2020-01-19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-02-17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-02-18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-02-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Barbell Squat'!$B$2:$B$5</c:f>
+              <c:f>'Barbell Squat'!$B$2:$B$8</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>165.0</c:v>
                 </c:pt>
@@ -3383,6 +3644,15 @@
                   <c:v>175.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3402,9 +3672,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Barbell Squat'!$A$2:$A$5</c:f>
+              <c:f>'Barbell Squat'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2020-01-13</c:v>
                 </c:pt>
@@ -3416,15 +3686,24 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2020-01-19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-02-17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-02-18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-02-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Barbell Squat'!$E$2:$E$5</c:f>
+              <c:f>'Barbell Squat'!$E$2:$E$8</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>192.5</c:v>
                 </c:pt>
@@ -3435,6 +3714,15 @@
                   <c:v>233.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>213.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>204.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>233.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>213.33333333333334</c:v>
                 </c:pt>
               </c:numCache>
@@ -3567,9 +3855,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Barbell Squat'!$A$2:$A$5</c:f>
+              <c:f>'Barbell Squat'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2020-01-13</c:v>
                 </c:pt>
@@ -3581,15 +3869,24 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2020-01-19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-02-17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-02-18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-02-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Barbell Squat'!$C$2:$C$5</c:f>
+              <c:f>'Barbell Squat'!$C$2:$C$8</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10.0</c:v>
                 </c:pt>
@@ -3600,6 +3897,15 @@
                   <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3732,9 +4038,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Barbell Squat'!$A$2:$A$5</c:f>
+              <c:f>'Barbell Squat'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2020-01-13</c:v>
                 </c:pt>
@@ -3746,15 +4052,24 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2020-01-19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-02-17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-02-18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-02-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Barbell Squat'!$D$2:$D$5</c:f>
+              <c:f>'Barbell Squat'!$D$2:$D$8</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>825.0</c:v>
                 </c:pt>
@@ -3765,6 +4080,15 @@
                   <c:v>1750.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>775.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1250.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1750.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>775.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4738,7 +5062,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4836,6 +5160,57 @@
         <v>213.33333333333334</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1250.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>204.16666666666669</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1750.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>233.33333333333331</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>775.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>213.33333333333334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4844,7 +5219,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4942,6 +5317,57 @@
         <v>260.0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2625.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>262.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1850.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>246.66666666666666</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>260.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4950,7 +5376,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5048,6 +5474,57 @@
         <v>157.16666666666666</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>160.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>173.33333333333331</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1265.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>157.16666666666666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -5056,7 +5533,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5154,6 +5631,57 @@
         <v>19.0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -5162,7 +5690,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5209,6 +5737,23 @@
         <v>66.66666666666666</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>66.66666666666666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
